--- a/기획폴더/테이블 엑셀 문서/TextTable.xlsx
+++ b/기획폴더/테이블 엑셀 문서/TextTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>테이블 정의: 텍스트를 관리하는 테이블</t>
   </si>
@@ -497,31 +497,91 @@
     <t>Stage_Name_korea01</t>
   </si>
   <si>
-    <t>1-1 전주</t>
+    <t>1-1  전주</t>
   </si>
   <si>
     <t>Stage_Name_korea02</t>
   </si>
   <si>
+    <t>1-2 전주</t>
+  </si>
+  <si>
     <t>Stage_Name_korea03</t>
   </si>
   <si>
+    <t>1-3  전주</t>
+  </si>
+  <si>
     <t>Stage_Name_korea04</t>
   </si>
   <si>
+    <t>1-4  전주</t>
+  </si>
+  <si>
     <t>Stage_Name_korea05</t>
   </si>
   <si>
+    <t>1-5  빵 횡단 열차</t>
+  </si>
+  <si>
     <t>Stage_Name_Use01</t>
   </si>
   <si>
+    <t>2-1 뉴욕</t>
+  </si>
+  <si>
     <t>Stage_Name_Use02</t>
   </si>
   <si>
+    <t>2-2 뉴욕</t>
+  </si>
+  <si>
     <t>Stage_Name_Use03</t>
   </si>
   <si>
+    <t>2-3 뉴욕</t>
+  </si>
+  <si>
     <t>Stage_Name_Use04</t>
+  </si>
+  <si>
+    <t>2-4 뉴욕</t>
+  </si>
+  <si>
+    <t>Character_history_Misuno_tensi</t>
+  </si>
+  <si>
+    <t>아! 안녕하세요! 저는 일본 야와라카이 스시에서 근무 중인 미즈노 텐시라고 해요. 저는 할아버지의 유언에 따라서 계속해서 스시집을 운영하고 있어요. 전 손님들을 최우선으로 생각한답니다!</t>
+  </si>
+  <si>
+    <t>Character_history_John_holloway</t>
+  </si>
+  <si>
+    <t>내 이름은 존 할로웨이 하와이에 위치했던 바바토스[스테이크 전문점]에서 근무했지. 난 거기서 손님들에게 최고의 스테이크만을 제공 했어.외계인들도 내 손님으로 만들겠어</t>
+  </si>
+  <si>
+    <t>Character_history_Mrs.J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐야..? 내 이름도 몰라? 내이름은 미스j 뭐든 튀기는건 내 전문이야. 내가 근무하고 있는 곳은 마이애미에 위치한 피쉬 앱 칩스 전문점이지.뭐 내가 들어간 건 아니고 거기서 날 필요로 해주니까  </t>
+  </si>
+  <si>
+    <t>Character_history_Park Chun-ja</t>
+  </si>
+  <si>
+    <t>네..?저요? 아 네..저는 31살 박춘자라고 해요..더 이상은 물어보지 말아주세요..</t>
+  </si>
+  <si>
+    <t>Character_history_Oliver</t>
+  </si>
+  <si>
+    <t>넌 누구냐? 네 이름부터 밝혀야지 예의 없는 놈</t>
+  </si>
+  <si>
+    <t>Character_history_Agatha</t>
+  </si>
+  <si>
+    <t>안녕하세요! 저는 현재 남극에서 탐사 진행 중인 아가사 연구원이에요. 어! 잠시만요 하나..둘..셋..넷..다섯..어..? 저희 막내 펭귄 맥스 못보셨나요?</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +1990,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.71"/>
-    <col customWidth="1" min="2" max="2" width="63.0"/>
+    <col customWidth="1" min="1" max="1" width="30.0"/>
+    <col customWidth="1" min="2" max="2" width="174.43"/>
     <col customWidth="1" min="3" max="3" width="11.43"/>
     <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
@@ -2487,48 +2547,114 @@
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
+        <v>174</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="83" ht="16.5" customHeight="1"/>
     <row r="84" ht="16.5" customHeight="1"/>
     <row r="85" ht="16.5" customHeight="1"/>
